--- a/data_sample/ice_cores/2015-B2-OR19.xlsx
+++ b/data_sample/ice_cores/2015-B2-OR19.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="125">
   <si>
     <t xml:space="preserve">date and time</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">core serie name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-B1-OR19</t>
   </si>
   <si>
     <t xml:space="preserve">observer</t>
@@ -696,7 +699,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,17 +909,20 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -924,12 +930,12 @@
     </row>
     <row r="26" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
@@ -939,7 +945,7 @@
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="1" t="s">
@@ -948,7 +954,7 @@
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
@@ -956,21 +962,21 @@
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1006,7 +1012,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C22 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,7 +1027,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -1029,7 +1035,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -1040,19 +1046,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1066,50 +1072,50 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1123,25 +1129,25 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1186,7 +1192,7 @@
         <v>5.3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1217,7 +1223,7 @@
         <v>5.3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1234,7 +1240,7 @@
         <v>5.2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1251,7 +1257,7 @@
         <v>6.4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1268,7 +1274,7 @@
         <v>8.3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1299,7 +1305,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="C22 D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1312,7 +1318,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
@@ -1321,7 +1327,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
@@ -1332,38 +1338,38 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="12"/>
     </row>
@@ -1372,10 +1378,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,7 +1400,7 @@
         <v>-1.9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1423,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="C22 K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1444,7 +1450,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="C22 G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1454,7 +1460,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -1462,10 +1468,10 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1473,113 +1479,113 @@
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1612,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="1" sqref="C22 F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,31 +1625,31 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1666,7 +1672,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="C22 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1678,68 +1684,68 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1747,7 +1753,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/data_sample/ice_cores/2015-B2-OR19.xlsx
+++ b/data_sample/ice_cores/2015-B2-OR19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -698,7 +698,7 @@
   </sheetPr>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1011,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="C22 C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,7 +1021,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="15.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="118.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="15.4"/>
   </cols>
   <sheetData>
@@ -1163,6 +1163,9 @@
       <c r="D8" s="1" t="n">
         <v>4.7</v>
       </c>
+      <c r="K8" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -1177,6 +1180,9 @@
       <c r="D9" s="1" t="n">
         <v>4.4</v>
       </c>
+      <c r="K9" s="1" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -1194,6 +1200,9 @@
       <c r="J10" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="K10" s="1" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -1208,6 +1217,9 @@
       <c r="D11" s="1" t="n">
         <v>3.7</v>
       </c>
+      <c r="K11" s="1" t="n">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -1225,6 +1237,9 @@
       <c r="J12" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="K12" s="1" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -1242,8 +1257,11 @@
       <c r="J13" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="1" t="n">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>0.435</v>
       </c>
@@ -1259,8 +1277,11 @@
       <c r="J14" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="1" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>0.46</v>
       </c>
@@ -1276,7 +1297,11 @@
       <c r="J15" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
+      <c r="K15" s="1" t="n">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1305,7 +1330,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="1" sqref="C22 D19"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1423,7 +1448,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="1" sqref="C22 K3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1450,7 +1475,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="1" sqref="C22 G16"/>
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1612,7 +1637,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F40" activeCellId="1" sqref="C22 F40"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1672,7 +1697,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="C22 C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
